--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2435.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2435.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019930396060521</v>
+        <v>1.859557867050171</v>
       </c>
       <c r="B1">
-        <v>2.075489010669984</v>
+        <v>2.775059223175049</v>
       </c>
       <c r="C1">
-        <v>8.947195513108245</v>
+        <v>2.963214874267578</v>
       </c>
       <c r="D1">
-        <v>2.563674496695864</v>
+        <v>3.5876624584198</v>
       </c>
       <c r="E1">
-        <v>0.9932381656151191</v>
+        <v>1.652899980545044</v>
       </c>
     </row>
   </sheetData>
